--- a/config/replication_origins_data.xlsx
+++ b/config/replication_origins_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitakonstantinovskiy/Documents/Bioinformatics/IB/Проект/JetBrains/ib_spring/workflow/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitakonstantinovskiy/Documents/Bioinformatics/IB/Проект/replication-origins-project/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77132C0F-1E60-FA47-B8BA-5E5497D5F361}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB8A718-F2B4-4947-8B2D-74F510374E3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20680" xr2:uid="{A8203201-2B1A-954D-9DD6-68615D9DE52C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20520" xr2:uid="{A8203201-2B1A-954D-9DD6-68615D9DE52C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="237">
   <si>
     <t>GSM</t>
   </si>
@@ -742,6 +742,9 @@
   </si>
   <si>
     <t>SRR2075394</t>
+  </si>
+  <si>
+    <t>Pair</t>
   </si>
 </sst>
 </file>
@@ -1115,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB3734F-975D-6C40-9F66-489AAAC7A951}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1127,9 +1130,10 @@
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="4" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1151,8 +1155,11 @@
       <c r="G1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1175,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1198,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1221,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1244,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1267,7 +1274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1290,7 +1297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1312,8 +1319,11 @@
       <c r="G8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1335,8 +1345,11 @@
       <c r="G9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>229</v>
       </c>
@@ -1359,7 +1372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>233</v>
       </c>
@@ -1382,7 +1395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1399,7 +1412,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1416,7 +1429,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1433,7 +1446,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1450,7 +1463,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2026,7 +2039,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -2043,7 +2056,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -2060,7 +2073,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -2077,7 +2090,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>96</v>
       </c>
@@ -2094,7 +2107,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -2111,7 +2124,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>98</v>
       </c>
@@ -2128,7 +2141,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>99</v>
       </c>
@@ -2145,7 +2158,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>178</v>
       </c>
@@ -2162,7 +2175,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>179</v>
       </c>
@@ -2179,7 +2192,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>180</v>
       </c>
@@ -2196,7 +2209,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>181</v>
       </c>
@@ -2213,7 +2226,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>182</v>
       </c>
@@ -2230,7 +2243,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>193</v>
       </c>
@@ -2246,8 +2259,11 @@
       <c r="F61" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>193</v>
       </c>
@@ -2263,8 +2279,11 @@
       <c r="F62" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>193</v>
       </c>
@@ -2280,8 +2299,11 @@
       <c r="F63" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>193</v>
       </c>
@@ -2297,8 +2319,11 @@
       <c r="F64" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>199</v>
       </c>
@@ -2318,7 +2343,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>199</v>
       </c>
@@ -2338,7 +2363,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>204</v>
       </c>
@@ -2354,8 +2379,11 @@
       <c r="F67" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>204</v>
       </c>
@@ -2371,8 +2399,11 @@
       <c r="F68" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>204</v>
       </c>
@@ -2388,8 +2419,11 @@
       <c r="F69" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>204</v>
       </c>
@@ -2405,8 +2439,11 @@
       <c r="F70" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>204</v>
       </c>
@@ -2422,8 +2459,11 @@
       <c r="F71" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>204</v>
       </c>
@@ -2439,8 +2479,11 @@
       <c r="F72" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>204</v>
       </c>
@@ -2456,8 +2499,11 @@
       <c r="F73" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>204</v>
       </c>
@@ -2473,8 +2519,11 @@
       <c r="F74" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>214</v>
       </c>
@@ -2494,7 +2543,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>214</v>
       </c>
@@ -2514,7 +2563,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>218</v>
       </c>
@@ -2531,7 +2580,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>218</v>
       </c>
@@ -2548,7 +2597,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>218</v>
       </c>
@@ -2565,7 +2614,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>218</v>
       </c>
@@ -2622,5 +2671,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>